--- a/NC State House/HD20/2018Results.xlsx
+++ b/NC State House/HD20/2018Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echen\Documents\GitHub\QGIS-Politics\NC State House\HD20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8907786-F51C-479F-8C09-B1805F08717B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3007A19D-4306-4F34-93E9-06C333BCD9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>Precinct</t>
   </si>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E18" sqref="E18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,20 +1070,18 @@
         <v>824</v>
       </c>
       <c r="E2">
-        <f>B2+(D2/$D$20)*$B$20</f>
-        <v>995.91296051665927</v>
+        <v>925.08403068340306</v>
       </c>
       <c r="F2">
-        <f>C2+(D2/$D$20)*$C$20</f>
-        <v>1183.5809481872889</v>
+        <v>1233.9958174904943</v>
       </c>
       <c r="G2">
         <f>E2+F2</f>
-        <v>2179.4939087039484</v>
+        <v>2159.0798481738975</v>
       </c>
       <c r="H2" s="1">
         <f>(E2-F2)/G2</f>
-        <v>-8.6106222605700111E-2</v>
+        <v>-0.14307566580659911</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1101,20 +1099,18 @@
         <v>617</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E19" si="1">B3+(D3/$D$20)*$B$20</f>
-        <v>770.85351533832375</v>
+        <v>767.43305439330538</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F19" si="2">C3+(D3/$D$20)*$C$20</f>
-        <v>861.12189931014245</v>
+        <v>863.5565272496832</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G18" si="3">E3+F3</f>
-        <v>1631.9754146484661</v>
+        <f t="shared" ref="G3:G20" si="1">E3+F3</f>
+        <v>1630.9895816429885</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H19" si="4">(E3-F3)/G3</f>
-        <v>-5.5312343042412115E-2</v>
+        <f t="shared" ref="H3:H19" si="2">(E3-F3)/G3</f>
+        <v>-5.8935675578961809E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1132,20 +1128,18 @@
         <v>627</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>767.1655658300308</v>
+        <v>731.73849372384939</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
-        <v>891.26001761338625</v>
+        <v>916.47642585551341</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
-        <v>1658.4255834434171</v>
+        <f t="shared" si="1"/>
+        <v>1648.2149195793627</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="4"/>
-        <v>-7.4826662722903753E-2</v>
+        <f t="shared" si="2"/>
+        <v>-0.11208364269558402</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1163,20 +1157,18 @@
         <v>363</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>457.72743284896524</v>
+        <v>464.02928870292885</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>502.41369440774986</v>
+        <v>497.92813688212931</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
-        <v>960.14112725671509</v>
+        <f t="shared" si="1"/>
+        <v>961.95742558505822</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="4"/>
-        <v>-4.6541347193886799E-2</v>
+        <f t="shared" si="2"/>
+        <v>-3.5239447482390739E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1194,20 +1186,18 @@
         <v>701</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>829.67473946866278</v>
+        <v>734.71304044630403</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>1024.4820930573901</v>
+        <v>1092.0742712294043</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
-        <v>1854.1568325260528</v>
+        <f t="shared" si="1"/>
+        <v>1826.7873116757082</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.10506519738318311</v>
+        <f t="shared" si="2"/>
+        <v>-0.19562279007472061</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1225,20 +1215,18 @@
         <v>693</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>890.02509907529725</v>
+        <v>934.00767085076711</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>942.97159841479527</v>
+        <v>911.6655259822561</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
-        <v>1832.9966974900926</v>
+        <f t="shared" si="1"/>
+        <v>1845.6731968330232</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="4"/>
-        <v>-2.8885212620403094E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.2105146732827747E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1256,20 +1244,18 @@
         <v>781</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>941.1711434023191</v>
+        <v>868.5676429567643</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>1124.5870394833405</v>
+        <v>1176.2650190114068</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
-        <v>2065.7581828856596</v>
+        <f t="shared" si="1"/>
+        <v>2044.8326619681711</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>-8.8788657646660052E-2</v>
+        <f t="shared" si="2"/>
+        <v>-0.15047557767317782</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1287,20 +1273,18 @@
         <v>751</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>961.23499192719805</v>
+        <v>1002.4222454672246</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>1025.1726845736093</v>
+        <v>995.85627376425862</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
-        <v>1986.4076765008074</v>
+        <f t="shared" si="1"/>
+        <v>1998.2785192314832</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="4"/>
-        <v>-3.2187598448593334E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.2858140843605508E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1318,20 +1302,18 @@
         <v>1432</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>1730.2856304124468</v>
+        <v>1606.255230125523</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>2057.3785410245118</v>
+        <v>2145.6613434727506</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
-        <v>3787.6641714369589</v>
+        <f t="shared" si="1"/>
+        <v>3751.9165735982733</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="4"/>
-        <v>-8.6357421304321433E-2</v>
+        <f t="shared" si="2"/>
+        <v>-0.14376815229393827</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1349,20 +1331,18 @@
         <v>797</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>1090.4704241890504</v>
+        <v>1273.1059972105998</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>1017.6080287685307</v>
+        <v>887.61102661596965</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>2108.0784529575812</v>
+        <f t="shared" si="1"/>
+        <v>2160.7170238265694</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4563417371063936E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.17841066939525904</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1380,20 +1360,18 @@
         <v>1190</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>1519.1340085131365</v>
+        <v>1576.5097629009763</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>1628.436078086012</v>
+        <v>1587.596958174905</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
-        <v>3147.5700865991485</v>
+        <f t="shared" si="1"/>
+        <v>3164.1067210758811</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="4"/>
-        <v>-3.4725857269463707E-2</v>
+        <f t="shared" si="2"/>
+        <v>-3.5040522495899838E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1411,20 +1389,18 @@
         <v>802</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>939.62644943490386</v>
+        <v>812.05125523012555</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>1181.6770879201526</v>
+        <v>1272.4830164765526</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
-        <v>2121.3035373550565</v>
+        <f t="shared" si="1"/>
+        <v>2084.5342717066783</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="4"/>
-        <v>-0.11410466923891957</v>
+        <f t="shared" si="2"/>
+        <v>-0.22087991907633933</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1442,20 +1418,18 @@
         <v>1016</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>1224.5043299574345</v>
+        <v>1130.3277545327755</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>1462.8328196095699</v>
+        <v>1529.8661596958175</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
-        <v>2687.3371495670044</v>
+        <f t="shared" si="1"/>
+        <v>2660.1939142285928</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="4"/>
-        <v>-8.8685742200429143E-2</v>
+        <f t="shared" si="2"/>
+        <v>-0.15019145898576372</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1473,20 +1447,18 @@
         <v>802</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>1023.6264494349039</v>
+        <v>1061.9131799163181</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>1097.6770879201526</v>
+        <v>1070.4252217997466</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
-        <v>2121.3035373550565</v>
+        <f t="shared" si="1"/>
+        <v>2132.3384017160647</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="4"/>
-        <v>-3.4908082309417485E-2</v>
+        <f t="shared" si="2"/>
+        <v>-3.9918813433075214E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1504,20 +1476,18 @@
         <v>609</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>790.20387494495822</v>
+        <v>844.7712691771269</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>820.61140466754728</v>
+        <v>781.77122940430934</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
-        <v>1610.8152796125055</v>
+        <f t="shared" si="1"/>
+        <v>1626.5424985814361</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="4"/>
-        <v>-1.887710534376346E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.873248920809759E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1535,20 +1505,18 @@
         <v>395</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>509.3259944224277</v>
+        <v>538.39295676429572</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>535.45567297813</v>
+        <v>514.76628643852985</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
-        <v>1044.7816674005576</v>
+        <f t="shared" si="1"/>
+        <v>1053.1592432028256</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="4"/>
-        <v>-2.5009702381851302E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.2434091024936924E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1566,20 +1534,18 @@
         <v>317</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>495.49200058711284</v>
+        <v>690.09483960948398</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>342.97835021282839</v>
+        <v>204.46324461343474</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
-        <v>838.47035079994123</v>
+        <f t="shared" si="1"/>
+        <v>894.55808422291875</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="4"/>
-        <v>0.18189510246698534</v>
+        <f t="shared" si="2"/>
+        <v>0.54287318348691216</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1597,20 +1563,18 @@
         <v>909</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>1125.5653896961689</v>
+        <v>1100.5822873082286</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
-        <v>1278.7549537648613</v>
+        <v>1296.5375158428392</v>
       </c>
       <c r="G19">
-        <f>E19+F19</f>
-        <v>2404.3203434610305</v>
+        <f t="shared" si="1"/>
+        <v>2397.1198031510676</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="4"/>
-        <v>-6.3714290188209788E-2</v>
+        <f t="shared" si="2"/>
+        <v>-8.1746113930986283E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1624,24 +1588,22 @@
         <v>11089</v>
       </c>
       <c r="D20">
-        <f>SUM(D2:D19)</f>
-        <v>13626</v>
+        <f>B20+C20</f>
+        <v>22415</v>
       </c>
       <c r="E20">
-        <f>SUM(E2:E19)</f>
         <v>17062</v>
       </c>
       <c r="F20">
-        <f>SUM(F2:F19)</f>
-        <v>18978.999999999996</v>
+        <v>18979.000000000004</v>
       </c>
       <c r="G20">
-        <f>SUM(G2:G19)</f>
-        <v>36041.000000000007</v>
+        <f t="shared" si="1"/>
+        <v>36041</v>
       </c>
       <c r="H20" s="1">
         <f>(E20-F20)/G20</f>
-        <v>-5.3189423156960014E-2</v>
+        <v>-5.3189423156960229E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1654,15 +1616,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H7"/>
+      <selection activeCell="J16" sqref="J16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1685,10 +1647,22 @@
         <v>43</v>
       </c>
       <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1702,20 +1676,34 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E16" si="0">B2+C2+D2</f>
+        <f t="shared" ref="E2:E17" si="0">B2+C2+D2</f>
         <v>533</v>
       </c>
       <c r="F2">
-        <v>609.96084337349407</v>
+        <v>586.05952578345216</v>
       </c>
       <c r="G2">
-        <v>676.44427710843377</v>
+        <v>703.74805954956105</v>
       </c>
       <c r="H2">
-        <v>1328.8878012048194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <f>D2/(SUM(D$2:D$16)/SUM(D$2:D$17))</f>
+        <v>34.82172701949861</v>
+      </c>
+      <c r="I2">
+        <f>SUM(F2:H2)</f>
+        <v>1324.629312352512</v>
+      </c>
+      <c r="J2">
+        <v>586.05952578345216</v>
+      </c>
+      <c r="K2">
+        <v>703.74805954956105</v>
+      </c>
+      <c r="L2">
+        <v>1324.629312352512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1733,16 +1721,30 @@
         <v>1193</v>
       </c>
       <c r="F3">
-        <v>1311.9367469879517</v>
+        <v>1160.7942298126347</v>
       </c>
       <c r="G3">
-        <v>1548.6792168674697</v>
+        <v>1654.2649192009162</v>
       </c>
       <c r="H3">
-        <v>2974.414909638554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H3:H16" si="1">D3/(SUM(D$2:D$16)/SUM(D$2:D$17))</f>
+        <v>114.13788300835654</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="2">SUM(F3:H3)</f>
+        <v>2929.1970320219079</v>
+      </c>
+      <c r="J3">
+        <v>1160.7942298126347</v>
+      </c>
+      <c r="K3">
+        <v>1654.2649192009162</v>
+      </c>
+      <c r="L3">
+        <v>2929.1970320219079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1760,16 +1762,30 @@
         <v>910</v>
       </c>
       <c r="F4">
-        <v>1050.9819277108434</v>
+        <v>1027.727574199967</v>
       </c>
       <c r="G4">
-        <v>1130.0512048192772</v>
+        <v>1144.7330449166561</v>
       </c>
       <c r="H4">
-        <v>2268.832831325301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>88.988857938718667</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2261.449477055342</v>
+      </c>
+      <c r="J4">
+        <v>1027.727574199967</v>
+      </c>
+      <c r="K4">
+        <v>1144.7330449166561</v>
+      </c>
+      <c r="L4">
+        <v>2261.449477055342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1787,16 +1803,30 @@
         <v>1023</v>
       </c>
       <c r="F5">
-        <v>1163.4126506024095</v>
+        <v>1104.1701210412868</v>
       </c>
       <c r="G5">
-        <v>1294.1641566265062</v>
+        <v>1341.234126479196</v>
       </c>
       <c r="H5">
-        <v>2550.5670180722891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>88.988857938718667</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>2534.3931054592017</v>
+      </c>
+      <c r="J5">
+        <v>1104.1701210412868</v>
+      </c>
+      <c r="K5">
+        <v>1341.234126479196</v>
+      </c>
+      <c r="L5">
+        <v>2534.3931054592017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1814,16 +1844,30 @@
         <v>1094</v>
       </c>
       <c r="F6">
-        <v>1270.0903614457829</v>
+        <v>1254.224009285359</v>
       </c>
       <c r="G6">
-        <v>1349.2439759036142</v>
+        <v>1354.9435042626289</v>
       </c>
       <c r="H6">
-        <v>2727.5858433734934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>112.2033426183844</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>2721.3708561663725</v>
+      </c>
+      <c r="J6">
+        <v>1254.224009285359</v>
+      </c>
+      <c r="K6">
+        <v>1354.9435042626289</v>
+      </c>
+      <c r="L6">
+        <v>2721.3708561663725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1841,16 +1885,30 @@
         <v>1205</v>
       </c>
       <c r="F7">
-        <v>1360.0090361445784</v>
+        <v>1271.2112419167636</v>
       </c>
       <c r="G7">
-        <v>1535.9743975903616</v>
+        <v>1606.2820969589006</v>
       </c>
       <c r="H7">
-        <v>3004.3335843373497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>102.53064066852367</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>2980.023979544188</v>
+      </c>
+      <c r="J7">
+        <v>1271.2112419167636</v>
+      </c>
+      <c r="K7">
+        <v>1606.2820969589006</v>
+      </c>
+      <c r="L7">
+        <v>2980.023979544188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1868,16 +1926,30 @@
         <v>1659</v>
       </c>
       <c r="F8">
-        <v>1902.2439759036145</v>
+        <v>1834.6211241916765</v>
       </c>
       <c r="G8">
-        <v>2074.8087349397592</v>
+        <v>2120.3837638376385</v>
       </c>
       <c r="H8">
-        <v>4136.2567771084341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>160.56685236768803</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>4115.5717403970029</v>
+      </c>
+      <c r="J8">
+        <v>1834.6211241916765</v>
+      </c>
+      <c r="K8">
+        <v>2120.3837638376385</v>
+      </c>
+      <c r="L8">
+        <v>4115.5717403970029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1895,16 +1967,30 @@
         <v>1102</v>
       </c>
       <c r="F9">
-        <v>1267.1385542168673</v>
+        <v>1228.7431603382524</v>
       </c>
       <c r="G9">
-        <v>1371.7740963855422</v>
+        <v>1393.7867413156891</v>
       </c>
       <c r="H9">
-        <v>2747.5316265060237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>112.2033426183844</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>2734.7332442723259</v>
+      </c>
+      <c r="J9">
+        <v>1228.7431603382524</v>
+      </c>
+      <c r="K9">
+        <v>1393.7867413156891</v>
+      </c>
+      <c r="L9">
+        <v>2734.7332442723259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1922,16 +2008,30 @@
         <v>1403</v>
       </c>
       <c r="F10">
-        <v>1673.7018072289156</v>
+        <v>1735.5289338418174</v>
       </c>
       <c r="G10">
-        <v>1692.8448795180723</v>
+        <v>1651.9800229036773</v>
       </c>
       <c r="H10">
-        <v>3497.9917168674697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>129.6142061281337</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>3517.1231628736286</v>
+      </c>
+      <c r="J10">
+        <v>1735.5289338418174</v>
+      </c>
+      <c r="K10">
+        <v>1651.9800229036773</v>
+      </c>
+      <c r="L10">
+        <v>3517.1231628736286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1949,16 +2049,30 @@
         <v>787</v>
       </c>
       <c r="F11">
-        <v>889.99096385542168</v>
+        <v>835.20560437738357</v>
       </c>
       <c r="G11">
-        <v>999.02560240963851</v>
+        <v>1039.6278152436698</v>
       </c>
       <c r="H11">
-        <v>1962.1664156626505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>71.577994428969362</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1946.4114140500228</v>
+      </c>
+      <c r="J11">
+        <v>835.20560437738357</v>
+      </c>
+      <c r="K11">
+        <v>1039.6278152436698</v>
+      </c>
+      <c r="L11">
+        <v>1946.4114140500228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1976,16 +2090,30 @@
         <v>584</v>
       </c>
       <c r="F12">
-        <v>647.51807228915663</v>
+        <v>583.22832034488476</v>
       </c>
       <c r="G12">
-        <v>756.69879518072287</v>
+        <v>806.56839292530856</v>
       </c>
       <c r="H12">
-        <v>1456.0421686746988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>48.363509749303617</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>1438.1602230194969</v>
+      </c>
+      <c r="J12">
+        <v>583.22832034488476</v>
+      </c>
+      <c r="K12">
+        <v>806.56839292530856</v>
+      </c>
+      <c r="L12">
+        <v>1438.1602230194969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2003,16 +2131,30 @@
         <v>908</v>
       </c>
       <c r="F13">
-        <v>1145.4698795180723</v>
+        <v>1299.5232963024375</v>
       </c>
       <c r="G13">
-        <v>1026.6686746987953</v>
+        <v>911.67362259829497</v>
       </c>
       <c r="H13">
-        <v>2263.8463855421687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>96.727019498607234</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>2307.9239383993395</v>
+      </c>
+      <c r="J13">
+        <v>1299.5232963024375</v>
+      </c>
+      <c r="K13">
+        <v>911.67362259829497</v>
+      </c>
+      <c r="L13">
+        <v>2307.9239383993395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2030,16 +2172,30 @@
         <v>629</v>
       </c>
       <c r="F14">
-        <v>862.53915662650593</v>
+        <v>1095.6765047255847</v>
       </c>
       <c r="G14">
-        <v>635.80572289156623</v>
+        <v>459.26415574500572</v>
       </c>
       <c r="H14">
-        <v>1568.2371987951806</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>79.316155988857943</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1634.2568164594484</v>
+      </c>
+      <c r="J14">
+        <v>1095.6765047255847</v>
+      </c>
+      <c r="K14">
+        <v>459.26415574500572</v>
+      </c>
+      <c r="L14">
+        <v>1634.2568164594484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2057,16 +2213,30 @@
         <v>836</v>
       </c>
       <c r="F15">
-        <v>1084.0361445783133</v>
+        <v>1279.7048582324658</v>
       </c>
       <c r="G15">
-        <v>913.89759036144574</v>
+        <v>767.72515587224837</v>
       </c>
       <c r="H15">
-        <v>2084.3343373493976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>92.85793871866295</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2140.2879528233771</v>
+      </c>
+      <c r="J15">
+        <v>1279.7048582324658</v>
+      </c>
+      <c r="K15">
+        <v>767.72515587224837</v>
+      </c>
+      <c r="L15">
+        <v>2140.2879528233771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2084,16 +2254,30 @@
         <v>742</v>
       </c>
       <c r="F16">
-        <v>835.96987951807228</v>
+        <v>778.58149560603556</v>
       </c>
       <c r="G16">
-        <v>950.91867469879514</v>
+        <v>1000.7845781906095</v>
       </c>
       <c r="H16">
-        <v>1849.9713855421685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>56.101671309192199</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>1835.4677451058374</v>
+      </c>
+      <c r="J16">
+        <v>778.58149560603556</v>
+      </c>
+      <c r="K16">
+        <v>1000.7845781906095</v>
+      </c>
+      <c r="L16">
+        <v>1835.4677451058374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2106,6 +2290,10 @@
       <c r="D17">
         <v>671</v>
       </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>21813</v>
+      </c>
       <c r="F17">
         <v>17075</v>
       </c>
@@ -2113,7 +2301,21 @@
         <v>17956.999999999996</v>
       </c>
       <c r="H17">
-        <v>36420.999999999993</v>
+        <f>SUM(H2:H16)</f>
+        <v>1388.9999999999998</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>36421</v>
+      </c>
+      <c r="J17">
+        <v>17075</v>
+      </c>
+      <c r="K17">
+        <v>17956.999999999996</v>
+      </c>
+      <c r="L17">
+        <v>36421</v>
       </c>
     </row>
   </sheetData>
@@ -2129,7 +2331,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2181,20 +2383,20 @@
         <v>254</v>
       </c>
       <c r="F2">
-        <f>B2+(E2/B8)*B5</f>
-        <v>424.86732259988077</v>
+        <f>B2/(B9/(B9+B5))</f>
+        <v>394.48564843913681</v>
       </c>
       <c r="G2">
-        <f>C2+(E2/B8)*B7</f>
-        <v>131.91144901610016</v>
+        <f>C2/(B11/(B11+B7))</f>
+        <v>142.62147570485902</v>
       </c>
       <c r="H2">
-        <f>D2+(E2/B8)*B6</f>
-        <v>28.731365533691115</v>
+        <f>D2/(B10/(B10+B6))</f>
+        <v>37.220149253731343</v>
       </c>
       <c r="I2">
         <f>F2+G2+H2</f>
-        <v>585.51013714967212</v>
+        <v>574.32727339772725</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2271,7 +2473,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2301,17 +2503,18 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>829.67473946866278</v>
+        <v>734.71304044630403</v>
       </c>
       <c r="C2">
-        <v>1024.4820930573901</v>
+        <v>1092.0742712294043</v>
       </c>
       <c r="D2">
-        <v>1854.1568325260528</v>
+        <f t="shared" ref="D2" si="0">B2+C2</f>
+        <v>1826.7873116757082</v>
       </c>
       <c r="E2" s="1">
         <f>(B2-C2)/D2</f>
-        <v>-0.10506519738318311</v>
+        <v>-0.19562279007472061</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2319,17 +2522,17 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>1360.0090361445784</v>
+        <v>1271.2112419167636</v>
       </c>
       <c r="C3">
-        <v>1535.9743975903616</v>
+        <v>1606.2820969589006</v>
       </c>
       <c r="D3">
-        <v>3004.3335843373497</v>
+        <v>2980.023979544188</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E18" si="0">(B3-C3)/D3</f>
-        <v>-5.8570513728286581E-2</v>
+        <f t="shared" ref="E3:E18" si="1">(B3-C3)/D3</f>
+        <v>-0.11243897946532232</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2337,17 +2540,18 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>890.02509907529725</v>
+        <v>934.00767085076711</v>
       </c>
       <c r="C4">
-        <v>942.97159841479527</v>
+        <v>911.6655259822561</v>
       </c>
       <c r="D4">
-        <v>1832.9966974900926</v>
+        <f t="shared" ref="D4:D7" si="2">B4+C4</f>
+        <v>1845.6731968330232</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.8885212620403094E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.2105146732827747E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2355,17 +2559,18 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1730.2856304124468</v>
+        <v>1606.255230125523</v>
       </c>
       <c r="C5">
-        <v>2057.3785410245118</v>
+        <v>2145.6613434727506</v>
       </c>
       <c r="D5">
-        <v>3787.6641714369589</v>
+        <f t="shared" si="2"/>
+        <v>3751.9165735982733</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>-8.6357421304321433E-2</v>
+        <f t="shared" si="1"/>
+        <v>-0.14376815229393827</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2373,17 +2578,18 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>939.62644943490386</v>
+        <v>812.05125523012555</v>
       </c>
       <c r="C6">
-        <v>1181.6770879201526</v>
+        <v>1272.4830164765526</v>
       </c>
       <c r="D6">
-        <v>2121.3035373550565</v>
+        <f t="shared" si="2"/>
+        <v>2084.5342717066783</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.11410466923891957</v>
+        <f t="shared" si="1"/>
+        <v>-0.22087991907633933</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2391,17 +2597,18 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1224.5043299574345</v>
+        <v>1130.3277545327755</v>
       </c>
       <c r="C7">
-        <v>1462.8328196095699</v>
+        <v>1529.8661596958175</v>
       </c>
       <c r="D7">
-        <v>2687.3371495670044</v>
+        <f t="shared" si="2"/>
+        <v>2660.1939142285928</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>-8.8685742200429143E-2</v>
+        <f t="shared" si="1"/>
+        <v>-0.15019145898576372</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2409,17 +2616,17 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>1902.2439759036145</v>
+        <v>1834.6211241916765</v>
       </c>
       <c r="C8">
-        <v>2074.8087349397592</v>
+        <v>2120.3837638376385</v>
       </c>
       <c r="D8">
-        <v>4136.2567771084341</v>
+        <v>4115.5717403970029</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.1720030533689688E-2</v>
+        <f t="shared" si="1"/>
+        <v>-6.9434493594417668E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2427,17 +2634,17 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>1673.7018072289156</v>
+        <v>1735.5289338418174</v>
       </c>
       <c r="C9">
-        <v>1692.8448795180723</v>
+        <v>1651.9800229036773</v>
       </c>
       <c r="D9">
-        <v>3497.9917168674697</v>
+        <v>3517.1231628736286</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.4725893708804114E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.3754900544875251E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2445,17 +2652,17 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>889.99096385542168</v>
+        <v>835.20560437738357</v>
       </c>
       <c r="C10">
-        <v>999.02560240963851</v>
+        <v>1039.6278152436698</v>
       </c>
       <c r="D10">
-        <v>1962.1664156626505</v>
+        <v>1946.4114140500228</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>-5.556849698571277E-2</v>
+        <f t="shared" si="1"/>
+        <v>-0.10502518089992695</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2463,17 +2670,17 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <v>647.51807228915663</v>
+        <v>583.22832034488476</v>
       </c>
       <c r="C11">
-        <v>756.69879518072287</v>
+        <v>806.56839292530856</v>
       </c>
       <c r="D11">
-        <v>1456.0421686746988</v>
+        <v>1438.1602230194969</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>-7.4984588523932236E-2</v>
+        <f t="shared" si="1"/>
+        <v>-0.15529568194530438</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2481,17 +2688,18 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>1023.6264494349039</v>
+        <v>1061.9131799163181</v>
       </c>
       <c r="C12">
-        <v>1097.6770879201526</v>
+        <v>1070.4252217997466</v>
       </c>
       <c r="D12">
-        <v>2121.3035373550565</v>
+        <f t="shared" ref="D12:D14" si="3">B12+C12</f>
+        <v>2132.3384017160647</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.4908082309417485E-2</v>
+        <f t="shared" si="1"/>
+        <v>-3.9918813433075214E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2499,17 +2707,18 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>790.20387494495822</v>
+        <v>844.7712691771269</v>
       </c>
       <c r="C13">
-        <v>820.61140466754728</v>
+        <v>781.77122940430934</v>
       </c>
       <c r="D13">
-        <v>1610.8152796125055</v>
+        <f t="shared" si="3"/>
+        <v>1626.5424985814361</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.887710534376346E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.873248920809759E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2517,17 +2726,18 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>509.3259944224277</v>
+        <v>538.39295676429572</v>
       </c>
       <c r="C14">
-        <v>535.45567297813</v>
+        <v>514.76628643852985</v>
       </c>
       <c r="D14">
-        <v>1044.7816674005576</v>
+        <f t="shared" si="3"/>
+        <v>1053.1592432028256</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.5009702381851302E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.2434091024936924E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2535,17 +2745,17 @@
         <v>33</v>
       </c>
       <c r="B15">
-        <v>1145.4698795180723</v>
+        <v>1299.5232963024375</v>
       </c>
       <c r="C15">
-        <v>1026.6686746987953</v>
+        <v>911.67362259829497</v>
       </c>
       <c r="D15">
-        <v>2263.8463855421687</v>
+        <v>2307.9239383993395</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2477591049458643E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.16805132407142312</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2553,17 +2763,17 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>920.35932318699361</v>
+        <v>1084.5804880486207</v>
       </c>
       <c r="C16">
-        <v>474.88979922892855</v>
+        <v>347.08472031829376</v>
       </c>
       <c r="D16">
-        <v>1423.9804879496132</v>
+        <v>1468.8853576206461</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.31283400842064613</v>
+        <f t="shared" si="1"/>
+        <v>0.5020785072872872</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2571,17 +2781,17 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>835.96987951807228</v>
+        <v>778.58149560603556</v>
       </c>
       <c r="C17">
-        <v>950.91867469879514</v>
+        <v>1000.7845781906095</v>
       </c>
       <c r="D17">
-        <v>1849.9713855421685</v>
+        <v>1835.4677451058374</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>-6.2135444947455223E-2</v>
+        <f t="shared" si="1"/>
+        <v>-0.12106073951834072</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -2590,19 +2800,19 @@
       </c>
       <c r="B18">
         <f>SUM(B2:B17)</f>
-        <v>17312.535504795862</v>
+        <v>17084.912861672856</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:D18" si="1">SUM(C2:C17)</f>
-        <v>18634.915863857321</v>
+        <f t="shared" ref="C18:D18" si="4">SUM(C2:C17)</f>
+        <v>18803.098067475763</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>36654.947794427833</v>
+        <f t="shared" si="4"/>
+        <v>36590.712972552763</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.6076449118895834E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.695686599743884E-2</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
